--- a/src/main/resources/MonRegister.xlsx
+++ b/src/main/resources/MonRegister.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\bEsTpRoGrAmMerS_EU\src\main\java\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\bEsTpRoGrAmMerS_EU\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2FB2CB-8726-4C73-A270-5A544757CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F120815A-9C24-40E0-9EE4-B2FD8A5A7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42210" yWindow="330" windowWidth="13500" windowHeight="20955" xr2:uid="{D3FECC1C-64AA-4A3D-AE61-EF6A50938C94}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>The excel checks for row id+1, so put the id on the right spot!</t>
+  </si>
+  <si>
+    <t>Smurfmon</t>
+  </si>
+  <si>
+    <t>POISON</t>
+  </si>
+  <si>
+    <t>QuickAttack,SwordsDance,Absorb</t>
   </si>
 </sst>
 </file>
@@ -477,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB97F33-6489-4E92-9DBD-0E2293FD6E3B}">
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,6 +740,38 @@
       </c>
       <c r="L7" s="1"/>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>101</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
@@ -769,6 +810,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006124A3112A30234887B80C625186D901" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56c14a6dcb6c84885f089c610ccd3af4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b6923cc-94d7-4f86-8e31-1b1fa90ab430" xmlns:ns4="79f744f5-cb0c-47fc-b303-4456a0d04880" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efe903cb1c03997b8902cfab651c05c0" ns3:_="" ns4:_="">
     <xsd:import namespace="3b6923cc-94d7-4f86-8e31-1b1fa90ab430"/>
@@ -939,12 +986,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -955,6 +996,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB29C154-8763-432A-B38B-34E0AC157D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="79f744f5-cb0c-47fc-b303-4456a0d04880"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b6923cc-94d7-4f86-8e31-1b1fa90ab430"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B054E4-AB9F-40CB-9C81-093D24B21832}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -973,23 +1031,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB29C154-8763-432A-B38B-34E0AC157D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="79f744f5-cb0c-47fc-b303-4456a0d04880"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b6923cc-94d7-4f86-8e31-1b1fa90ab430"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EA282A0-7F12-4AC5-A1E2-2835B8437EB5}">
   <ds:schemaRefs>
